--- a/scripts/publish_excel/百家号-AGI启示录.xlsx
+++ b/scripts/publish_excel/百家号-AGI启示录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>标题</t>
   </si>
@@ -44,6 +44,339 @@
     <t>推荐量</t>
   </si>
   <si>
+    <t>Deepseek-OCR：把文本转截图再提取，能节约20倍Token！97%准确率！</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1846510007034105677</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>当出身量化的Deepseek遇上AI实盘炒币竞技平台AlphaArena，13.34%收益领跑顶尖模型！</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1846509987196648317</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>硅谷VC疯狂布局：一个你从未听说的岗位，正成为AI创业公司的胜负手</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1846238136856580767</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>8天长假，AI没有放假：一份给忙碌者的极简复盘</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1845507444205604728</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>别点了！鼠标给它，它帮你玩。Gemini发布Computer Use：点击、填表、购物，无所不能</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1845507274060131070</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>我们又一次低估了指数的力量：AI不是泡沫，而是被误读的浪潮</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1844697940306872362</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>2025云栖大会解读：阿里AI全面进化，从AGI迈向ASI的新征程</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1844336223327698251</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>AI“生崽”了：开源项目EvoAgentX正在批量制造会“自杀”的智能体</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1844336180970899457</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>从“动得像”到“演得真”：Vidu Q2揭开AI视频生成2.0序幕</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1844245400950582294</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Claude 终于承认：八月到九月，它确实出了大问题</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843611117727765276</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>GPT-5-Codex凌晨发布，AI竞争激战：老大老二打架，老三真的会死吗？</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843430030599199158</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3540</t>
+  </si>
+  <si>
+    <t>不愧是你啊Qwen！0.6B参数“小钢炮”杀疯了，路由器都能跑AI？</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843430020294387447</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>如何让你的企业出现在大模型回答中？先从这些免费优化开始</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843339632785690529</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>GPU末日来了？浙大校友&lt;Nature&gt;论文引爆革命：AI图像生成，未来可能几乎不用电</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843339641390769559</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>29872</t>
+  </si>
+  <si>
+    <t>速度狂飙，价格屠刀，Grok Code Fast 1仅用三周已在OpenRouter断层领先</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843068213479906288</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>LLM Token计费问题深度调研分析</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1843068226014674986</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>当机器开始教人如何与人沟通，我们是在进步，还是在倒退？</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842976098347030362</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>阿里P10大神“乞讨”VC90次：我撕掉了大厂高管的骄傲</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842976079389925405</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>OpenAI的“算力钞能力”：一夜拉爆甲骨文，逼谷歌“资敌”，让博通笑醒</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842886480569304210</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3859</t>
+  </si>
+  <si>
+    <t>你的下一名医生，何必是真人？斯坦福AI智能体，8B参数的AI医生已达专家水平</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842886494733769684</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>谢谢你，撤回键</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842795855164420080</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>光刻机巨头的觉醒：ASML的15亿美元，是一场关于“技术主权”的精准押注</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842705447437908604</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>AI的“眼睛”和“手”：Browser-Use如何为智能体装上浏览器？</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842433137189155400</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>AI 终于治好了 “健忘症”！超级麦吉让机器从此记住你是谁</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842330362026184860</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>当苹果开始“低调”开源：FastVLM背后的深层博弈</t>
+  </si>
+  <si>
+    <t>http://baijiahao.baidu.com/builder/preview/s?id=1842330331396720811</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>OpenAI收购Statsig的战略解码：通往AGI的关键布局</t>
   </si>
   <si>
@@ -53,16 +386,7 @@
     <t>2025-09-03</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>121</t>
+    <t>142</t>
   </si>
 </sst>
 </file>
@@ -404,10 +728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,16 +782,741 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
